--- a/phage_survival/original_data/phage_titre_Dans_raw.xlsx
+++ b/phage_survival/original_data/phage_titre_Dans_raw.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\ESI\MRes\S. thermo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcommon/Documents/OneDrive - University of Exeter/Data/Dan_Coevo/phage_survival/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="12060" yWindow="1300" windowWidth="26340" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -136,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +185,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -217,7 +239,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -225,16 +247,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -272,8 +300,14 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -491,94 +525,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,94 +744,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3600000</c:v>
+                  <c:v>3.6E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120000</c:v>
+                  <c:v>120000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12000000</c:v>
+                  <c:v>1.2E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000000</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2600</c:v>
+                  <c:v>2600.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,94 +963,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4200000</c:v>
+                  <c:v>4.2E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,94 +1182,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,94 +1401,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4600</c:v>
+                  <c:v>4600.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,94 +1620,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,94 +1841,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,94 +2062,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4200000</c:v>
+                  <c:v>4.2E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,94 +2283,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1800000</c:v>
+                  <c:v>1.8E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,94 +2504,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1400000</c:v>
+                  <c:v>1.4E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2691,94 +2725,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,94 +2946,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,11 +3054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-394495440"/>
-        <c:axId val="-394500880"/>
+        <c:axId val="-71607984"/>
+        <c:axId val="-76664752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-394495440"/>
+        <c:axId val="-71607984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,7 +3101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394500880"/>
+        <c:crossAx val="-76664752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3075,9 +3109,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-394500880"/>
+        <c:axId val="-76664752"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3127,7 +3161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394495440"/>
+        <c:crossAx val="-71607984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3372,94 +3406,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40000000</c:v>
+                  <c:v>4.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2400000</c:v>
+                  <c:v>2.4E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1200000</c:v>
+                  <c:v>1.2E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140000</c:v>
+                  <c:v>140000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,94 +3625,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600000000</c:v>
+                  <c:v>6.0E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14000000</c:v>
+                  <c:v>1.4E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140000</c:v>
+                  <c:v>140000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400000</c:v>
+                  <c:v>2.4E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>420000000</c:v>
+                  <c:v>4.2E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,94 +3844,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36000000</c:v>
+                  <c:v>3.6E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26000</c:v>
+                  <c:v>26000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>440000</c:v>
+                  <c:v>440000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4029,94 +4063,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40000000</c:v>
+                  <c:v>4.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460000</c:v>
+                  <c:v>460000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260000</c:v>
+                  <c:v>260000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160000</c:v>
+                  <c:v>160000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>480000000</c:v>
+                  <c:v>4.8E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36000</c:v>
+                  <c:v>36000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4248,97 +4282,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18000000</c:v>
+                  <c:v>1.8E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280000</c:v>
+                  <c:v>280000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>300000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2200000</c:v>
+                  <c:v>2.2E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1800</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12000000</c:v>
+                  <c:v>1.2E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3800000</c:v>
+                  <c:v>3.8E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>260000</c:v>
+                  <c:v>260000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3600000</c:v>
+                  <c:v>3.6E6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1700000</c:v>
+                  <c:v>1.7E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4470,94 +4504,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000000</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90000</c:v>
+                  <c:v>90000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38000</c:v>
+                  <c:v>38000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180000</c:v>
+                  <c:v>180000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4691,94 +4725,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2200000</c:v>
+                  <c:v>2.2E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,94 +4946,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30000000</c:v>
+                  <c:v>3.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,94 +5167,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46000000</c:v>
+                  <c:v>4.6E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1400000</c:v>
+                  <c:v>1.4E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5354,94 +5388,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200000</c:v>
+                  <c:v>1.2E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>760000</c:v>
+                  <c:v>760000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1800000</c:v>
+                  <c:v>1.8E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1200000</c:v>
+                  <c:v>1.2E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,94 +5609,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120000000</c:v>
+                  <c:v>1.2E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120000</c:v>
+                  <c:v>120000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4600000</c:v>
+                  <c:v>4.6E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>420000000</c:v>
+                  <c:v>4.2E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400000000</c:v>
+                  <c:v>4.0E8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>280000</c:v>
+                  <c:v>280000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>220000</c:v>
+                  <c:v>220000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5796,94 +5830,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30000000</c:v>
+                  <c:v>3.0E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5904,11 +5938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-394508496"/>
-        <c:axId val="-394507408"/>
+        <c:axId val="-40206800"/>
+        <c:axId val="-40202768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-394508496"/>
+        <c:axId val="-40206800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5951,7 +5985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394507408"/>
+        <c:crossAx val="-40202768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5959,9 +5993,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-394507408"/>
+        <c:axId val="-40202768"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6011,7 +6045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394508496"/>
+        <c:crossAx val="-40206800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6256,94 +6290,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000000</c:v>
+                  <c:v>2.0E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24000000</c:v>
+                  <c:v>2.4E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460000</c:v>
+                  <c:v>460000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6475,94 +6509,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16000000</c:v>
+                  <c:v>1.6E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2800000</c:v>
+                  <c:v>2.8E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>660000</c:v>
+                  <c:v>660000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140000</c:v>
+                  <c:v>140000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34000</c:v>
+                  <c:v>34000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6694,94 +6728,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140000000</c:v>
+                  <c:v>1.4E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000000</c:v>
+                  <c:v>1.2E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2400</c:v>
+                  <c:v>2400.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4800000</c:v>
+                  <c:v>4.8E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>240000</c:v>
+                  <c:v>240000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38000</c:v>
+                  <c:v>38000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3200</c:v>
+                  <c:v>3200.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>220000</c:v>
+                  <c:v>220000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6913,91 +6947,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6600000</c:v>
+                  <c:v>6.6E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7129,94 +7163,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2200000</c:v>
+                  <c:v>2.2E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22000</c:v>
+                  <c:v>22000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140000</c:v>
+                  <c:v>140000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18000000</c:v>
+                  <c:v>1.8E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34000</c:v>
+                  <c:v>34000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7348,94 +7382,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12000000</c:v>
+                  <c:v>1.2E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3000000</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120000</c:v>
+                  <c:v>120000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400000</c:v>
+                  <c:v>2.4E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>800000000</c:v>
+                  <c:v>8.0E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>22000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,97 +7603,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22000000</c:v>
+                  <c:v>2.2E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60000000</c:v>
+                  <c:v>6.0E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1800000</c:v>
+                  <c:v>1.8E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38000000</c:v>
+                  <c:v>3.8E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18000000</c:v>
+                  <c:v>1.8E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16000000</c:v>
+                  <c:v>1.6E7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14000000</c:v>
+                  <c:v>1.4E7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3000000</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16000000</c:v>
+                  <c:v>1.6E7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28000000</c:v>
+                  <c:v>2.8E7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16000000</c:v>
+                  <c:v>1.6E7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12000000</c:v>
+                  <c:v>1.2E7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3800000</c:v>
+                  <c:v>3.8E6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11100000</c:v>
+                  <c:v>1.11E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7793,94 +7827,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80000000</c:v>
+                  <c:v>8.0E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120000</c:v>
+                  <c:v>120000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1200000</c:v>
+                  <c:v>1.2E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8014,94 +8048,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220000000</c:v>
+                  <c:v>2.2E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20000000</c:v>
+                  <c:v>2.0E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800000</c:v>
+                  <c:v>2.8E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120000000</c:v>
+                  <c:v>1.2E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1800000</c:v>
+                  <c:v>1.8E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80000000</c:v>
+                  <c:v>8.0E7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28000000</c:v>
+                  <c:v>2.8E7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1200000</c:v>
+                  <c:v>1.2E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8235,94 +8269,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140000</c:v>
+                  <c:v>140000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2200000000</c:v>
+                  <c:v>2.2E9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8456,94 +8490,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60000000</c:v>
+                  <c:v>6.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8677,94 +8711,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000000</c:v>
+                  <c:v>2.0E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8785,11 +8819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-352557344"/>
-        <c:axId val="-352554624"/>
+        <c:axId val="-61791024"/>
+        <c:axId val="-61786992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-352557344"/>
+        <c:axId val="-61791024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8832,7 +8866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-352554624"/>
+        <c:crossAx val="-61786992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8840,9 +8874,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-352554624"/>
+        <c:axId val="-61786992"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8892,7 +8926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-352557344"/>
+        <c:crossAx val="-61791024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9137,94 +9171,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2200000</c:v>
+                  <c:v>2.2E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28000000</c:v>
+                  <c:v>2.8E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9356,94 +9390,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2400000</c:v>
+                  <c:v>2.4E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9575,94 +9609,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2400000</c:v>
+                  <c:v>2.4E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16000000</c:v>
+                  <c:v>1.6E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9794,94 +9828,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28000000</c:v>
+                  <c:v>2.8E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000000</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48000</c:v>
+                  <c:v>48000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800000000</c:v>
+                  <c:v>8.0E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1400000</c:v>
+                  <c:v>1.4E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12000000</c:v>
+                  <c:v>1.2E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3000000</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160000</c:v>
+                  <c:v>160000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28000000</c:v>
+                  <c:v>2.8E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10013,94 +10047,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120000</c:v>
+                  <c:v>120000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60000000</c:v>
+                  <c:v>6.0E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10232,94 +10266,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2200000</c:v>
+                  <c:v>2.2E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2200</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1200000000</c:v>
+                  <c:v>1.2E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1800000</c:v>
+                  <c:v>1.8E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12000000</c:v>
+                  <c:v>1.2E7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6000000</c:v>
+                  <c:v>6.0E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10453,94 +10487,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160000</c:v>
+                  <c:v>160000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10674,94 +10708,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10895,94 +10929,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40000000</c:v>
+                  <c:v>4.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11116,94 +11150,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600000</c:v>
+                  <c:v>1.6E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20000</c:v>
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11337,94 +11371,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600000</c:v>
+                  <c:v>600000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000000</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1200000</c:v>
+                  <c:v>1.2E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400000</c:v>
+                  <c:v>2.4E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000000</c:v>
+                  <c:v>8.0E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11558,94 +11592,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800000</c:v>
+                  <c:v>800000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11666,11 +11700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-352554080"/>
-        <c:axId val="-352556800"/>
+        <c:axId val="-59885200"/>
+        <c:axId val="-59881168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-352554080"/>
+        <c:axId val="-59885200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11713,7 +11747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-352556800"/>
+        <c:crossAx val="-59881168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11721,9 +11755,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-352556800"/>
+        <c:axId val="-59881168"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11773,7 +11807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-352554080"/>
+        <c:crossAx val="-59885200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14066,7 +14100,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F46563EB-B2C8-47A0-B9AF-F9863E14ACC1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46563EB-B2C8-47A0-B9AF-F9863E14ACC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14102,7 +14136,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B428E1A-315E-4CD8-A8FF-A59AD02AF453}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B428E1A-315E-4CD8-A8FF-A59AD02AF453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14138,7 +14172,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{498A65A7-1A70-4078-84BA-D46749888555}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498A65A7-1A70-4078-84BA-D46749888555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14174,7 +14208,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A96C05E-2408-429C-88D7-EA04805016A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A96C05E-2408-429C-88D7-EA04805016A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14492,23 +14526,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AH52"/>
+  <dimension ref="B3:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK31" sqref="AK31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:AH51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
@@ -14603,7 +14637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
@@ -14704,7 +14738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
       <c r="C5" s="5">
         <v>2</v>
@@ -14803,7 +14837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
       <c r="C6" s="5">
         <v>3</v>
@@ -14902,7 +14936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="5">
         <v>4</v>
@@ -15001,7 +15035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="5">
         <v>5</v>
@@ -15100,7 +15134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="5">
         <v>6</v>
@@ -15199,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="5">
         <v>7</v>
@@ -15298,7 +15332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="5">
         <v>8</v>
@@ -15397,7 +15431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="5">
         <v>9</v>
@@ -15496,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="5">
         <v>10</v>
@@ -15595,7 +15629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="5">
         <v>11</v>
@@ -15694,7 +15728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="6">
         <v>12</v>
@@ -15793,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>4</v>
       </c>
@@ -15894,7 +15928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="24">
         <v>2</v>
@@ -15993,7 +16027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="24">
         <v>3</v>
@@ -16092,7 +16126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="24">
         <v>4</v>
@@ -16191,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
       <c r="C20" s="24">
         <v>5</v>
@@ -16290,7 +16324,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
       <c r="C21" s="24">
         <v>6</v>
@@ -16389,7 +16423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="24">
         <v>7</v>
@@ -16488,7 +16522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B23" s="25"/>
       <c r="C23" s="5">
         <v>8</v>
@@ -16587,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B24" s="25"/>
       <c r="C24" s="5">
         <v>9</v>
@@ -16686,7 +16720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B25" s="25"/>
       <c r="C25" s="5">
         <v>10</v>
@@ -16785,7 +16819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="C26" s="24">
         <v>11</v>
@@ -16884,7 +16918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B27" s="26"/>
       <c r="C27" s="6">
         <v>12</v>
@@ -16983,7 +17017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B28" s="27" t="s">
         <v>5</v>
       </c>
@@ -17084,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
       <c r="C29" s="5">
         <v>2</v>
@@ -17183,7 +17217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B30" s="25"/>
       <c r="C30" s="5">
         <v>3</v>
@@ -17282,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B31" s="25"/>
       <c r="C31" s="5">
         <v>4</v>
@@ -17378,8 +17412,9 @@
       <c r="AH31" s="13">
         <v>1</v>
       </c>
+      <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B32" s="25"/>
       <c r="C32" s="5">
         <v>5</v>
@@ -17478,7 +17513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B33" s="25"/>
       <c r="C33" s="5">
         <v>6</v>
@@ -17577,7 +17612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B34" s="25"/>
       <c r="C34" s="5">
         <v>7</v>
@@ -17676,7 +17711,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B35" s="25"/>
       <c r="C35" s="5">
         <v>8</v>
@@ -17775,7 +17810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" s="25"/>
       <c r="C36" s="5">
         <v>9</v>
@@ -17874,7 +17909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B37" s="25"/>
       <c r="C37" s="5">
         <v>10</v>
@@ -17973,7 +18008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B38" s="25"/>
       <c r="C38" s="5">
         <v>11</v>
@@ -18072,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
       <c r="C39" s="6">
         <v>12</v>
@@ -18171,7 +18206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -18272,7 +18307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="5">
         <v>2</v>
@@ -18371,7 +18406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B42" s="25"/>
       <c r="C42" s="5">
         <v>3</v>
@@ -18470,7 +18505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B43" s="25"/>
       <c r="C43" s="5">
         <v>4</v>
@@ -18569,7 +18604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B44" s="25"/>
       <c r="C44" s="5">
         <v>5</v>
@@ -18668,7 +18703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B45" s="25"/>
       <c r="C45" s="5">
         <v>6</v>
@@ -18767,7 +18802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B46" s="25"/>
       <c r="C46" s="5">
         <v>7</v>
@@ -18866,7 +18901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B47" s="25"/>
       <c r="C47" s="5">
         <v>8</v>
@@ -18965,7 +19000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B48" s="25"/>
       <c r="C48" s="5">
         <v>9</v>
@@ -19064,7 +19099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B49" s="25"/>
       <c r="C49" s="5">
         <v>10</v>
@@ -19163,7 +19198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B50" s="25"/>
       <c r="C50" s="5">
         <v>11</v>
@@ -19262,7 +19297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B51" s="26"/>
       <c r="C51" s="6">
         <v>12</v>
@@ -19361,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -19393,23 +19428,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
@@ -19441,7 +19476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
@@ -19479,7 +19514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
       <c r="C5" s="5">
         <v>2</v>
@@ -19515,7 +19550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
       <c r="C6" s="5">
         <v>3</v>
@@ -19551,7 +19586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="5">
         <v>4</v>
@@ -19587,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="5">
         <v>5</v>
@@ -19623,7 +19658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="5">
         <v>6</v>
@@ -19659,7 +19694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="5">
         <v>7</v>
@@ -19695,7 +19730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="5">
         <v>8</v>
@@ -19731,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="5">
         <v>9</v>
@@ -19767,7 +19802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="5">
         <v>10</v>
@@ -19803,7 +19838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="5">
         <v>11</v>
@@ -19839,7 +19874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="6">
         <v>12</v>
@@ -19875,7 +19910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>4</v>
       </c>
@@ -19913,7 +19948,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="5">
         <v>2</v>
@@ -19949,7 +19984,7 @@
         <v>420000000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="5">
         <v>3</v>
@@ -19985,7 +20020,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="5">
         <v>4</v>
@@ -20021,7 +20056,7 @@
         <v>480000000</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
       <c r="C20" s="5">
         <v>5</v>
@@ -20057,7 +20092,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
       <c r="C21" s="5">
         <v>6</v>
@@ -20093,7 +20128,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="5">
         <v>7</v>
@@ -20129,7 +20164,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="25"/>
       <c r="C23" s="5">
         <v>8</v>
@@ -20165,7 +20200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="25"/>
       <c r="C24" s="5">
         <v>9</v>
@@ -20201,7 +20236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="25"/>
       <c r="C25" s="5">
         <v>10</v>
@@ -20237,7 +20272,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="C26" s="5">
         <v>11</v>
@@ -20273,7 +20308,7 @@
         <v>420000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="26"/>
       <c r="C27" s="6">
         <v>12</v>
@@ -20309,7 +20344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="27" t="s">
         <v>5</v>
       </c>
@@ -20347,7 +20382,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
       <c r="C29" s="5">
         <v>2</v>
@@ -20383,7 +20418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="25"/>
       <c r="C30" s="5">
         <v>3</v>
@@ -20419,7 +20454,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="25"/>
       <c r="C31" s="5">
         <v>4</v>
@@ -20455,7 +20490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="25"/>
       <c r="C32" s="5">
         <v>5</v>
@@ -20491,7 +20526,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="25"/>
       <c r="C33" s="5">
         <v>6</v>
@@ -20527,7 +20562,7 @@
         <v>800000000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="25"/>
       <c r="C34" s="5">
         <v>7</v>
@@ -20563,7 +20598,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="25"/>
       <c r="C35" s="5">
         <v>8</v>
@@ -20599,7 +20634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="25"/>
       <c r="C36" s="5">
         <v>9</v>
@@ -20635,7 +20670,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="25"/>
       <c r="C37" s="5">
         <v>10</v>
@@ -20671,7 +20706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="25"/>
       <c r="C38" s="5">
         <v>11</v>
@@ -20707,7 +20742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
       <c r="C39" s="6">
         <v>12</v>
@@ -20743,7 +20778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -20781,7 +20816,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="5">
         <v>2</v>
@@ -20817,7 +20852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="25"/>
       <c r="C42" s="5">
         <v>3</v>
@@ -20853,7 +20888,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="25"/>
       <c r="C43" s="5">
         <v>4</v>
@@ -20889,7 +20924,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="25"/>
       <c r="C44" s="5">
         <v>5</v>
@@ -20925,7 +20960,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="25"/>
       <c r="C45" s="5">
         <v>6</v>
@@ -20961,7 +20996,7 @@
         <v>1200000000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="25"/>
       <c r="C46" s="5">
         <v>7</v>
@@ -20997,7 +21032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="25"/>
       <c r="C47" s="5">
         <v>8</v>
@@ -21033,7 +21068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="25"/>
       <c r="C48" s="5">
         <v>9</v>
@@ -21069,7 +21104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="25"/>
       <c r="C49" s="5">
         <v>10</v>
@@ -21105,7 +21140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="25"/>
       <c r="C50" s="5">
         <v>11</v>
@@ -21141,7 +21176,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="26"/>
       <c r="C51" s="6">
         <v>12</v>
